--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1828,13 +1824,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1848,10 +1844,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1862,28 +1858,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1933,13 +1929,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1965,10 +1961,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1979,25 +1975,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2048,19 +2044,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2080,10 +2076,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2094,28 +2090,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2165,19 +2161,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2197,10 +2193,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2211,7 +2207,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2223,16 +2219,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2258,43 +2254,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2314,21 +2310,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2340,16 +2336,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2399,25 +2395,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2431,14 +2427,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2457,16 +2453,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2516,7 +2512,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2534,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2548,10 +2544,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2574,13 +2570,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2619,17 +2615,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2641,7 +2637,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2661,13 +2657,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2677,7 +2673,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2689,13 +2685,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2746,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2755,10 +2751,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2778,13 +2774,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2794,7 +2790,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2806,13 +2802,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2863,7 +2859,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2872,10 +2868,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2895,13 +2891,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2911,7 +2907,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2923,13 +2919,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2980,7 +2976,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2989,10 +2985,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3012,13 +3008,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3040,13 +3036,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3097,7 +3093,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3106,10 +3102,10 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3129,14 +3125,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3149,25 +3145,25 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3216,7 +3212,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3228,13 +3224,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3248,10 +3244,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3259,7 +3255,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3274,16 +3270,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3321,17 +3317,17 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3343,16 +3339,16 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3363,23 +3359,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3391,16 +3387,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3450,7 +3446,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3462,16 +3458,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3482,10 +3478,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3496,7 +3492,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3508,13 +3504,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3565,25 +3561,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3597,14 +3593,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3623,16 +3619,16 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3670,19 +3666,19 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3694,13 +3690,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3714,10 +3710,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3728,31 +3724,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3777,55 +3773,55 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3833,10 +3829,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3847,31 +3843,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3896,55 +3892,55 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -3952,10 +3948,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3963,107 +3959,107 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4071,10 +4067,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4082,31 +4078,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4156,31 +4152,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4188,10 +4184,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4202,25 +4198,25 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4271,31 +4267,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4303,10 +4299,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4317,28 +4313,28 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4388,31 +4384,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4420,13 +4416,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4448,16 +4444,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4507,7 +4503,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4519,16 +4515,16 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4539,10 +4535,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4553,7 +4549,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4565,13 +4561,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4622,25 +4618,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4654,14 +4650,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4680,16 +4676,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4727,19 +4723,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4751,13 +4747,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4771,10 +4767,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4785,31 +4781,31 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4834,55 +4830,55 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4890,10 +4886,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4904,31 +4900,31 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4953,55 +4949,55 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5009,10 +5005,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5020,41 +5016,41 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="N29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
@@ -5096,31 +5092,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5128,10 +5124,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5139,31 +5135,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5213,31 +5209,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5245,10 +5241,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5259,25 +5255,25 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5328,31 +5324,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5360,10 +5356,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5374,28 +5370,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5445,31 +5441,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5477,10 +5473,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5500,16 +5496,16 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5560,7 +5556,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5572,13 +5568,13 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5592,10 +5588,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5615,16 +5611,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5675,7 +5671,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5687,13 +5683,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5707,10 +5703,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5718,31 +5714,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="J35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5768,55 +5764,55 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -5824,10 +5820,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5850,13 +5846,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5883,14 +5879,14 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5919,19 +5915,19 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -5939,10 +5935,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5953,7 +5949,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5965,13 +5961,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5998,49 +5994,49 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6054,10 +6050,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6065,31 +6061,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6115,55 +6111,55 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6171,10 +6167,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6182,28 +6178,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6254,31 +6250,31 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6286,10 +6282,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6300,7 +6296,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6312,13 +6308,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6369,31 +6365,31 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6401,10 +6397,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6427,13 +6423,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6484,7 +6480,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6496,16 +6492,16 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6516,10 +6512,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6527,28 +6523,28 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6599,31 +6595,31 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6631,10 +6627,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6654,16 +6650,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6714,7 +6710,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6726,19 +6722,19 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -6746,10 +6742,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6760,7 +6756,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6772,13 +6768,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6829,25 +6825,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6861,14 +6857,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6887,16 +6883,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6946,7 +6942,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6958,13 +6954,13 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -6978,14 +6974,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6998,25 +6994,25 @@
         <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="N46" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7065,7 +7061,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7077,13 +7073,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7097,10 +7093,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7111,7 +7107,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7123,13 +7119,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7156,49 +7152,49 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7212,10 +7208,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7223,28 +7219,28 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7295,25 +7291,25 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7327,10 +7323,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7353,13 +7349,13 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7386,14 +7382,14 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7410,7 +7406,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7422,19 +7418,19 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7442,10 +7438,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7468,16 +7464,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7527,7 +7523,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7539,30 +7535,30 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7573,7 +7569,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7585,16 +7581,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7644,31 +7640,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7676,10 +7672,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7702,13 +7698,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7759,7 +7755,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7771,19 +7767,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7791,10 +7787,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7817,13 +7813,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7874,7 +7870,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7886,13 +7882,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7906,10 +7902,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7920,7 +7916,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7932,13 +7928,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7989,25 +7985,25 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8021,10 +8017,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8035,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8047,13 +8043,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8104,25 +8100,25 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8136,14 +8132,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8162,16 +8158,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8221,7 +8217,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8233,13 +8229,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8253,14 +8249,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8273,25 +8269,25 @@
         <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="N57" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8340,7 +8336,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8352,13 +8348,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8372,10 +8368,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8386,7 +8382,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8398,13 +8394,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8455,25 +8451,25 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8487,10 +8483,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8501,7 +8497,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8513,16 +8509,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8548,55 +8544,55 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -8604,10 +8600,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8618,7 +8614,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8630,13 +8626,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8663,55 +8659,55 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Z60" t="s" s="2">
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -8719,10 +8715,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8733,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8745,16 +8741,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8780,55 +8776,55 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8836,10 +8832,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8850,7 +8846,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8862,16 +8858,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8921,31 +8917,31 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8953,10 +8949,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8967,7 +8963,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8979,16 +8975,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9038,31 +9034,31 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
@@ -9070,10 +9066,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9096,16 +9092,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9155,7 +9151,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9167,13 +9163,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
